--- a/excel/Ventas.xlsx
+++ b/excel/Ventas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\VI\Bases de datos II\db_manager_xlcs_conv\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E493D74-37EF-4AEE-9EA5-FDF426CF78B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D907DEAF-2A6B-481E-83D2-779617C53850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="30">
-  <si>
-    <t>ID Venta</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="28">
   <si>
     <t>ID Vendedor</t>
   </si>
@@ -57,9 +54,6 @@
   </si>
   <si>
     <t>Total de la Venta</t>
-  </si>
-  <si>
-    <t>Fecha de la Venta</t>
   </si>
   <si>
     <t>Método de Pago</t>
@@ -169,15 +163,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -463,12 +454,12 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -496,44 +487,32 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>1</v>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2">
+        <v>50</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2">
+        <v>150</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2">
-        <v>50</v>
-      </c>
-      <c r="F2" s="2">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2">
-        <v>150</v>
-      </c>
-      <c r="H2" s="3">
-        <v>45536</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>13</v>
+      <c r="H2" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="K2" s="2"/>
     </row>
@@ -541,32 +520,26 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <v>2</v>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2">
+        <v>30</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>135</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2">
-        <v>30</v>
-      </c>
-      <c r="F3" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="G3" s="2">
-        <v>135</v>
-      </c>
-      <c r="H3" s="3">
-        <v>45537</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>13</v>
+      <c r="H3" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="K3" s="2"/>
     </row>
@@ -574,32 +547,26 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>3</v>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2">
+        <v>100</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>120</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2">
-        <v>100</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="G4" s="2">
-        <v>120</v>
-      </c>
-      <c r="H4" s="3">
-        <v>45538</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>13</v>
+      <c r="H4" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="K4" s="2"/>
     </row>
@@ -607,32 +574,26 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
-        <v>4</v>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="D5" s="2">
+        <v>200</v>
       </c>
       <c r="E5" s="2">
-        <v>200</v>
+        <v>0.8</v>
       </c>
       <c r="F5" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="G5" s="2">
         <v>160</v>
       </c>
-      <c r="H5" s="3">
-        <v>45539</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>13</v>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="K5" s="2"/>
     </row>
@@ -640,527 +601,431 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
-        <v>5</v>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="D6" s="2">
+        <v>150</v>
       </c>
       <c r="E6" s="2">
-        <v>150</v>
+        <v>1.5</v>
       </c>
       <c r="F6" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="G6" s="2">
         <v>225</v>
       </c>
-      <c r="H6" s="3">
-        <v>45540</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>13</v>
+      <c r="G6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
         <v>1</v>
       </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2">
+        <v>100</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>200</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="2">
-        <v>100</v>
-      </c>
-      <c r="F7" s="2">
-        <v>2</v>
-      </c>
-      <c r="G7" s="2">
-        <v>200</v>
-      </c>
-      <c r="H7" s="3">
-        <v>45541</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>13</v>
+      <c r="H7" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
         <v>2</v>
       </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2">
+        <v>75</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2">
+        <v>225</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="2">
-        <v>75</v>
-      </c>
-      <c r="F8" s="2">
-        <v>3</v>
-      </c>
-      <c r="G8" s="2">
-        <v>225</v>
-      </c>
-      <c r="H8" s="3">
-        <v>45542</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>13</v>
+      <c r="H8" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
         <v>3</v>
       </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2">
+        <v>50</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4</v>
+      </c>
+      <c r="F9" s="2">
+        <v>200</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="2">
-        <v>50</v>
-      </c>
-      <c r="F9" s="2">
-        <v>4</v>
-      </c>
-      <c r="G9" s="2">
-        <v>200</v>
-      </c>
-      <c r="H9" s="3">
-        <v>45543</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>13</v>
+      <c r="H9" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
         <v>4</v>
       </c>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="C10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="D10" s="2">
+        <v>150</v>
       </c>
       <c r="E10" s="2">
-        <v>150</v>
+        <v>1.2</v>
       </c>
       <c r="F10" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="G10" s="2">
         <v>180</v>
       </c>
-      <c r="H10" s="3">
-        <v>45544</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>27</v>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
         <v>5</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="D11" s="2">
+        <v>100</v>
       </c>
       <c r="E11" s="2">
-        <v>100</v>
+        <v>2.5</v>
       </c>
       <c r="F11" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="G11" s="2">
         <v>250</v>
       </c>
-      <c r="H11" s="3">
-        <v>45545</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>13</v>
+      <c r="G11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2">
         <v>1</v>
       </c>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="2">
+        <v>200</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="F12" s="2">
+        <v>300</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="2">
-        <v>200</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="G12" s="2">
-        <v>300</v>
-      </c>
-      <c r="H12" s="3">
-        <v>45546</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>13</v>
+      <c r="H12" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
-        <v>2</v>
-      </c>
       <c r="C13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="2">
+        <v>60</v>
+      </c>
+      <c r="E13" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="F13" s="2">
+        <v>210</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="2">
-        <v>60</v>
-      </c>
-      <c r="F13" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="G13" s="2">
-        <v>210</v>
-      </c>
-      <c r="H13" s="3">
-        <v>45547</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>13</v>
+      <c r="H13" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2">
         <v>3</v>
       </c>
+      <c r="B14" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="C14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="2">
+        <v>100</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>120</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="2">
-        <v>100</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="G14" s="2">
-        <v>120</v>
-      </c>
-      <c r="H14" s="3">
-        <v>45548</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>13</v>
+      <c r="H14" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2">
         <v>4</v>
       </c>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="C15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="D15" s="2">
+        <v>120</v>
       </c>
       <c r="E15" s="2">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="F15" s="2">
-        <v>3</v>
-      </c>
-      <c r="G15" s="2">
         <v>360</v>
       </c>
-      <c r="H15" s="3">
-        <v>45549</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>13</v>
+      <c r="G15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2">
         <v>5</v>
       </c>
+      <c r="B16" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="D16" s="2">
+        <v>150</v>
       </c>
       <c r="E16" s="2">
-        <v>150</v>
+        <v>0.8</v>
       </c>
       <c r="F16" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="G16" s="2">
         <v>120</v>
       </c>
-      <c r="H16" s="3">
-        <v>45550</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>13</v>
+      <c r="G16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2">
         <v>1</v>
       </c>
+      <c r="B17" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="2">
+        <v>80</v>
+      </c>
+      <c r="E17" s="2">
+        <v>3</v>
+      </c>
+      <c r="F17" s="2">
+        <v>240</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="2">
-        <v>80</v>
-      </c>
-      <c r="F17" s="2">
-        <v>3</v>
-      </c>
-      <c r="G17" s="2">
-        <v>240</v>
-      </c>
-      <c r="H17" s="3">
-        <v>45551</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>13</v>
+      <c r="H17" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2">
         <v>2</v>
       </c>
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="C18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="2">
+        <v>90</v>
+      </c>
+      <c r="E18" s="2">
+        <v>4</v>
+      </c>
+      <c r="F18" s="2">
+        <v>360</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="2">
-        <v>90</v>
-      </c>
-      <c r="F18" s="2">
-        <v>4</v>
-      </c>
-      <c r="G18" s="2">
-        <v>360</v>
-      </c>
-      <c r="H18" s="3">
-        <v>45552</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>13</v>
+      <c r="H18" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2">
         <v>3</v>
       </c>
+      <c r="B19" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2">
+        <v>50</v>
+      </c>
+      <c r="E19" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="F19" s="2">
+        <v>225</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="2">
-        <v>50</v>
-      </c>
-      <c r="F19" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="G19" s="2">
-        <v>225</v>
-      </c>
-      <c r="H19" s="3">
-        <v>45553</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>13</v>
+      <c r="H19" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2">
         <v>4</v>
       </c>
+      <c r="B20" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="C20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="D20" s="2">
+        <v>200</v>
       </c>
       <c r="E20" s="2">
-        <v>200</v>
+        <v>1.2</v>
       </c>
       <c r="F20" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="G20" s="2">
         <v>240</v>
       </c>
-      <c r="H20" s="3">
-        <v>45554</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>13</v>
+      <c r="G20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
+        <v>5</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="2">
-        <v>5</v>
-      </c>
       <c r="C21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="D21" s="2">
+        <v>180</v>
       </c>
       <c r="E21" s="2">
-        <v>180</v>
+        <v>1.5</v>
       </c>
       <c r="F21" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="G21" s="2">
         <v>270</v>
       </c>
-      <c r="H21" s="3">
-        <v>45555</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>13</v>
+      <c r="G21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="K21" s="2"/>
     </row>
